--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H2">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N2">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O2">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P2">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q2">
-        <v>1.992330607058778</v>
+        <v>2.259869574353334</v>
       </c>
       <c r="R2">
-        <v>17.930975463529</v>
+        <v>20.33882616918001</v>
       </c>
       <c r="S2">
-        <v>0.1355101704974471</v>
+        <v>0.1428126743212259</v>
       </c>
       <c r="T2">
-        <v>0.135510170497447</v>
+        <v>0.1428126743212259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H3">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I3">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J3">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.369632</v>
       </c>
       <c r="O3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q3">
-        <v>2.016595831292445</v>
+        <v>2.544246252035556</v>
       </c>
       <c r="R3">
-        <v>18.149362481632</v>
+        <v>22.89821626832</v>
       </c>
       <c r="S3">
-        <v>0.1371605916983326</v>
+        <v>0.1607838857200097</v>
       </c>
       <c r="T3">
-        <v>0.1371605916983326</v>
+        <v>0.1607838857200097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H4">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I4">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J4">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N4">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q4">
-        <v>0.5644896245454446</v>
+        <v>1.390462566122222</v>
       </c>
       <c r="R4">
-        <v>5.080406620909001</v>
+        <v>12.5141630951</v>
       </c>
       <c r="S4">
-        <v>0.03839427301632391</v>
+        <v>0.08787041511822281</v>
       </c>
       <c r="T4">
-        <v>0.0383942730163239</v>
+        <v>0.08787041511822279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.204641</v>
       </c>
       <c r="I5">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J5">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N5">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O5">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P5">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q5">
-        <v>2.693648082121001</v>
+        <v>2.421712288932</v>
       </c>
       <c r="R5">
-        <v>24.242832739089</v>
+        <v>21.79541060038801</v>
       </c>
       <c r="S5">
-        <v>0.1832109136782283</v>
+        <v>0.1530403401788894</v>
       </c>
       <c r="T5">
-        <v>0.1832109136782283</v>
+        <v>0.1530403401788894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.204641</v>
       </c>
       <c r="I6">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J6">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.369632</v>
       </c>
       <c r="O6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q6">
         <v>2.726454873568</v>
@@ -818,10 +818,10 @@
         <v>24.538093862112</v>
       </c>
       <c r="S6">
-        <v>0.1854422973083881</v>
+        <v>0.1722985770193422</v>
       </c>
       <c r="T6">
-        <v>0.185442297308388</v>
+        <v>0.1722985770193421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.204641</v>
       </c>
       <c r="I7">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J7">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N7">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q7">
-        <v>0.7631948177410002</v>
+        <v>1.49004186874</v>
       </c>
       <c r="R7">
-        <v>6.868753359669001</v>
+        <v>13.41037681866</v>
       </c>
       <c r="S7">
-        <v>0.05190938667931624</v>
+        <v>0.09416333869013156</v>
       </c>
       <c r="T7">
-        <v>0.05190938667931623</v>
+        <v>0.09416333869013153</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H8">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I8">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J8">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N8">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O8">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P8">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q8">
-        <v>1.718889687300667</v>
+        <v>1.09124117864</v>
       </c>
       <c r="R8">
-        <v>15.470007185706</v>
+        <v>9.821170607760001</v>
       </c>
       <c r="S8">
-        <v>0.116911838711488</v>
+        <v>0.06896109086101565</v>
       </c>
       <c r="T8">
-        <v>0.116911838711488</v>
+        <v>0.06896109086101564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H9">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I9">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J9">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>20.369632</v>
       </c>
       <c r="O9">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P9">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q9">
-        <v>1.739824588138666</v>
+        <v>1.228560404693333</v>
       </c>
       <c r="R9">
-        <v>15.658421293248</v>
+        <v>11.05704364224</v>
       </c>
       <c r="S9">
-        <v>0.1183357449506701</v>
+        <v>0.07763899251116251</v>
       </c>
       <c r="T9">
-        <v>0.1183357449506701</v>
+        <v>0.07763899251116248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H10">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I10">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J10">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N10">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O10">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P10">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q10">
-        <v>0.4870152527806667</v>
+        <v>0.6714237081333332</v>
       </c>
       <c r="R10">
-        <v>4.383137275026</v>
+        <v>6.042813373199999</v>
       </c>
       <c r="S10">
-        <v>0.03312478345980577</v>
+        <v>0.04243068558000036</v>
       </c>
       <c r="T10">
-        <v>0.03312478345980578</v>
+        <v>0.04243068558000034</v>
       </c>
     </row>
   </sheetData>
